--- a/Labs/Excel/Labs/Lab01/Zenevich_T091_7.xlsx
+++ b/Labs/Excel/Labs/Lab01/Zenevich_T091_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\Labs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A9166E-D8F2-423C-B527-9EC7C0A1BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC16F06-3689-415A-9D48-F1BDDC843499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9075" yWindow="1485" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="Задание 7" sheetId="8" r:id="rId7"/>
     <sheet name="Задание 8" sheetId="9" r:id="rId8"/>
     <sheet name="Задания 9" sheetId="10" r:id="rId9"/>
+    <sheet name="Задание 10" sheetId="11" r:id="rId10"/>
+    <sheet name="Задание 11" sheetId="12" r:id="rId11"/>
+    <sheet name="Задание 12" sheetId="13" r:id="rId12"/>
+    <sheet name="Задание 13" sheetId="14" r:id="rId13"/>
+    <sheet name="Задание 14" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="221">
   <si>
     <t>Данные по расходу за электроэнергию за 2004 год</t>
   </si>
@@ -401,9 +406,6 @@
     <t>Расчёт месячной квартплаты и платы за коммунальные услуги</t>
   </si>
   <si>
-    <t>Отопление, руб/кв. м.</t>
-  </si>
-  <si>
     <t>Общ. площадь квартиры, кв. м.</t>
   </si>
   <si>
@@ -461,21 +463,263 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Хол. вода, руб/чел</t>
-  </si>
-  <si>
     <t>Общ. площадь квартиры, км. м.</t>
   </si>
   <si>
     <t>Общая сумма за квартиру, руб.</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Цена товара, руб.</t>
+  </si>
+  <si>
+    <t>Цена товара, $</t>
+  </si>
+  <si>
+    <t>Бумага</t>
+  </si>
+  <si>
+    <t>Конверт</t>
+  </si>
+  <si>
+    <t>Папка</t>
+  </si>
+  <si>
+    <t>Скрепки</t>
+  </si>
+  <si>
+    <t>Кнопки</t>
+  </si>
+  <si>
+    <t>Ручка</t>
+  </si>
+  <si>
+    <t>Степлер</t>
+  </si>
+  <si>
+    <t>Клей</t>
+  </si>
+  <si>
+    <t>Общая сумма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рост цен на товары в апреле по сравнению с мартом составил - </t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Цена, руб. (в марте)</t>
+  </si>
+  <si>
+    <t>Сумма, руб. (в марте)</t>
+  </si>
+  <si>
+    <t>Сумма, руб. (в апреле)</t>
+  </si>
+  <si>
+    <t>Бумага для принтеров, пачки</t>
+  </si>
+  <si>
+    <t>Папки для дел, шт.</t>
+  </si>
+  <si>
+    <t>Конверты для писем, шт.</t>
+  </si>
+  <si>
+    <t>Абонентская плата, руб.</t>
+  </si>
+  <si>
+    <t>Прирост месячной платы за междугородние переговоры, %</t>
+  </si>
+  <si>
+    <t>Хол. вода, руб./чел</t>
+  </si>
+  <si>
+    <t>Всего за телефон, руб.</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Итого за год:</t>
+  </si>
+  <si>
+    <t>Всего за год:</t>
+  </si>
+  <si>
+    <t>Плата за междугородние переговоры, руб.</t>
+  </si>
+  <si>
+    <t>Плата за междугородние переговоры (в январе), руб.</t>
+  </si>
+  <si>
+    <t>Налог на добавленную стоимость -</t>
+  </si>
+  <si>
+    <t>Прирост продаж за месяц -</t>
+  </si>
+  <si>
+    <t>Сумма продаж</t>
+  </si>
+  <si>
+    <t>Сумма без НДС</t>
+  </si>
+  <si>
+    <t>Общая сумма дохода за год:</t>
+  </si>
+  <si>
+    <t>Время:</t>
+  </si>
+  <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>Цена, $</t>
+  </si>
+  <si>
+    <t>Сумма, $</t>
+  </si>
+  <si>
+    <t>НДС (20%)</t>
+  </si>
+  <si>
+    <t>Итого, $</t>
+  </si>
+  <si>
+    <t>Предоплата  (40%), $</t>
+  </si>
+  <si>
+    <t>Остаток, $</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>комп.</t>
+  </si>
+  <si>
+    <t>Принтер HP</t>
+  </si>
+  <si>
+    <t>Телефакс</t>
+  </si>
+  <si>
+    <t>Сканер BenQ</t>
+  </si>
+  <si>
+    <t>Телефон LG</t>
+  </si>
+  <si>
+    <t>Колонки</t>
+  </si>
+  <si>
+    <t>Конвентра-тор</t>
+  </si>
+  <si>
+    <t>Web камера</t>
+  </si>
+  <si>
+    <t>Модем Zexel</t>
+  </si>
+  <si>
+    <t>Стоимость 1 страницы, $</t>
+  </si>
+  <si>
+    <t>Оргвзнос, $</t>
+  </si>
+  <si>
+    <t>Почтовые услуги, $</t>
+  </si>
+  <si>
+    <t>Проживание за сутки, $</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Количество страниц</t>
+  </si>
+  <si>
+    <t>Затраты на издание статьи</t>
+  </si>
+  <si>
+    <t>Количество суток проживания</t>
+  </si>
+  <si>
+    <t>Затраты на проживание</t>
+  </si>
+  <si>
+    <t>Затраты на дорогу, $</t>
+  </si>
+  <si>
+    <t>Суммарные затраты</t>
+  </si>
+  <si>
+    <t>Смирнов К. И.</t>
+  </si>
+  <si>
+    <t>Пенкина О. С.</t>
+  </si>
+  <si>
+    <t>Неров П. А.</t>
+  </si>
+  <si>
+    <t>Весова К. Д.</t>
+  </si>
+  <si>
+    <t>Веденеев В. В.</t>
+  </si>
+  <si>
+    <t>Пронин У. Ж.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -501,7 +745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -726,11 +976,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -747,98 +1066,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,34 +1529,34 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="19">
+      <c r="B3" s="29"/>
+      <c r="C3" s="13">
         <v>30</v>
       </c>
     </row>
@@ -1320,23 +1726,1275 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="53"/>
       <c r="C19" s="1">
         <f>SUM(C6:C18)</f>
         <v>482040</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6EA8F-5706-4BA9-85F3-57A2969F7C98}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>125</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3*B3</f>
+        <v>250</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3+D3*$E$1</f>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D5" si="0">C4*B4</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E5" si="1">D4+D4*$E$1</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="6">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>590.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="6">
+        <f>SUM(D3:D5)</f>
+        <v>992.5</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUM(E3:E5)</f>
+        <v>1042.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9693A3-7E22-4A00-A96D-E51312E042AF}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6">
+        <v>900</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="54">
+        <f>($B$2)+($B$2*C2%)</f>
+        <v>913.5</v>
+      </c>
+      <c r="C5" s="54">
+        <f>$A$2+B5</f>
+        <v>963.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="54">
+        <f>B5+B5*$C$2%</f>
+        <v>927.20249999999999</v>
+      </c>
+      <c r="C6" s="54">
+        <f t="shared" ref="C6:C16" si="0">$A$2+B6</f>
+        <v>977.20249999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="54">
+        <f t="shared" ref="B7:B16" si="1">B6+B6*$C$2%</f>
+        <v>941.11053749999996</v>
+      </c>
+      <c r="C7" s="54">
+        <f t="shared" si="0"/>
+        <v>991.11053749999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="54">
+        <f t="shared" si="1"/>
+        <v>955.22719556250001</v>
+      </c>
+      <c r="C8" s="54">
+        <f t="shared" si="0"/>
+        <v>1005.2271955625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="54">
+        <f t="shared" si="1"/>
+        <v>969.55560349593748</v>
+      </c>
+      <c r="C9" s="54">
+        <f t="shared" si="0"/>
+        <v>1019.5556034959375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="54">
+        <f t="shared" si="1"/>
+        <v>984.09893754837651</v>
+      </c>
+      <c r="C10" s="54">
+        <f t="shared" si="0"/>
+        <v>1034.0989375483764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="54">
+        <f t="shared" si="1"/>
+        <v>998.86042161160219</v>
+      </c>
+      <c r="C11" s="54">
+        <f t="shared" si="0"/>
+        <v>1048.8604216116023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="54">
+        <f t="shared" si="1"/>
+        <v>1013.8433279357762</v>
+      </c>
+      <c r="C12" s="54">
+        <f t="shared" si="0"/>
+        <v>1063.8433279357762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="54">
+        <f t="shared" si="1"/>
+        <v>1029.0509778548128</v>
+      </c>
+      <c r="C13" s="54">
+        <f t="shared" si="0"/>
+        <v>1079.0509778548128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="54">
+        <f t="shared" si="1"/>
+        <v>1044.486742522635</v>
+      </c>
+      <c r="C14" s="54">
+        <f t="shared" si="0"/>
+        <v>1094.486742522635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="54">
+        <f t="shared" si="1"/>
+        <v>1060.1540436604746</v>
+      </c>
+      <c r="C15" s="54">
+        <f t="shared" si="0"/>
+        <v>1110.1540436604746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="54">
+        <f t="shared" si="1"/>
+        <v>1076.0563543153817</v>
+      </c>
+      <c r="C16" s="54">
+        <f t="shared" si="0"/>
+        <v>1126.0563543153817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="54">
+        <f>SUM(C5:C16)</f>
+        <v>12513.146642007496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE9FB3-88F6-4709-BCD4-E4CA38AA6B06}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="60">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="60">
+        <f>B4-B4*$C$1</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="60">
+        <f>B4+B4*$C$1</f>
+        <v>110000</v>
+      </c>
+      <c r="C5" s="60">
+        <f t="shared" ref="C5:C15" si="0">B5-B5*$C$1</f>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="60">
+        <f t="shared" ref="B6:B15" si="1">B5+B5*$C$1</f>
+        <v>121000</v>
+      </c>
+      <c r="C6" s="60">
+        <f t="shared" si="0"/>
+        <v>108900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="60">
+        <f t="shared" si="1"/>
+        <v>133100</v>
+      </c>
+      <c r="C7" s="60">
+        <f t="shared" si="0"/>
+        <v>119790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="60">
+        <f t="shared" si="1"/>
+        <v>146410</v>
+      </c>
+      <c r="C8" s="60">
+        <f t="shared" si="0"/>
+        <v>131769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="60">
+        <f t="shared" si="1"/>
+        <v>161051</v>
+      </c>
+      <c r="C9" s="60">
+        <f t="shared" si="0"/>
+        <v>144945.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="60">
+        <f t="shared" si="1"/>
+        <v>177156.1</v>
+      </c>
+      <c r="C10" s="60">
+        <f t="shared" si="0"/>
+        <v>159440.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="60">
+        <f t="shared" si="1"/>
+        <v>194871.71000000002</v>
+      </c>
+      <c r="C11" s="60">
+        <f t="shared" si="0"/>
+        <v>175384.53900000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="60">
+        <f t="shared" si="1"/>
+        <v>214358.88100000002</v>
+      </c>
+      <c r="C12" s="60">
+        <f t="shared" si="0"/>
+        <v>192922.99290000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="60">
+        <f t="shared" si="1"/>
+        <v>235794.76910000003</v>
+      </c>
+      <c r="C13" s="60">
+        <f t="shared" si="0"/>
+        <v>212215.29219000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="60">
+        <f t="shared" si="1"/>
+        <v>259374.24601000003</v>
+      </c>
+      <c r="C14" s="60">
+        <f t="shared" si="0"/>
+        <v>233436.82140900003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="60">
+        <f t="shared" si="1"/>
+        <v>285311.67061100004</v>
+      </c>
+      <c r="C15" s="60">
+        <f t="shared" si="0"/>
+        <v>256780.50354990002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="61">
+        <f>SUM(B4:B15)</f>
+        <v>2138428.3767210003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D9908-149A-48C9-ACE9-D27604A46A51}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="64">
+        <f ca="1">NOW()</f>
+        <v>44664.724319097222</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="63">
+        <f ca="1">TODAY()</f>
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
+        <f>E4*D4</f>
+        <v>796.8</v>
+      </c>
+      <c r="G4" s="6">
+        <f>F4*20%</f>
+        <v>159.36000000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <f>F4+G4</f>
+        <v>956.16</v>
+      </c>
+      <c r="I4" s="6">
+        <f>H4-H4*40%</f>
+        <v>573.69599999999991</v>
+      </c>
+      <c r="J4" s="6">
+        <f>H4-I4</f>
+        <v>382.46400000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="6">
+        <v>224.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F11" si="0">E5*D5</f>
+        <v>1346.4</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G11" si="1">F5*20%</f>
+        <v>269.28000000000003</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H11" si="2">F5+G5</f>
+        <v>1615.68</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I11" si="3">H5-H5*40%</f>
+        <v>969.40800000000002</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J11" si="4">H5-I5</f>
+        <v>646.27200000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="6">
+        <v>172.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>172.8</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>1036.8</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>622.07999999999993</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="4"/>
+        <v>414.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="6">
+        <v>47.2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>519.20000000000005</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>103.84000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>623.04000000000008</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>373.82400000000007</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="4"/>
+        <v>249.21600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>60.480000000000011</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>362.88000000000005</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>217.72800000000004</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="4"/>
+        <v>145.15200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>117.60000000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>23.520000000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>141.12</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>84.671999999999997</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="4"/>
+        <v>56.448000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>187.2</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>37.44</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>224.64</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>134.78399999999999</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="4"/>
+        <v>89.855999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>93.6</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>18.72</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>112.32</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>67.391999999999996</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="4"/>
+        <v>44.927999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="6">
+        <f>SUM(F4:F11)</f>
+        <v>4227.2</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:J12" si="5">SUM(G4:G11)</f>
+        <v>845.44</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="5"/>
+        <v>5072.6400000000003</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>3043.5839999999998</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="5"/>
+        <v>2029.056</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D434F6-5E9E-474E-84E5-8814F863EF2A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <f>$B$2+C7*$B$1+$B$3</f>
+        <v>12.9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <f>E7+$B$4</f>
+        <v>9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>70</v>
+      </c>
+      <c r="H7" s="6">
+        <f>D7+F7+G7</f>
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ref="D8:D12" si="0">$B$2+C8*$B$1+$B$3</f>
+        <v>20.6</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F12" si="1">E8+$B$4</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H12" si="2">D8+F8+G8</f>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="6">
+        <v>90</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>10.700000000000001</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="6">
+        <v>40</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="6">
+        <f>SUM(C7:C12)</f>
+        <v>39</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:F13" si="3">SUM(D7:D12)</f>
+        <v>87.300000000000011</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="6">
+        <f>SUM(G7:G12)</f>
+        <v>440</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUM(H7:H12)</f>
+        <v>581.30000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1350,31 +3008,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="10.7109375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1596,11 +3254,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="19">
+      <c r="B14" s="29"/>
+      <c r="C14" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1625,19 +3283,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1663,20 +3321,20 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>38032</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <v>38029</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>42650</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="12">
         <f>D4*1.5%</f>
         <v>639.75</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="12">
         <f>D4+E4</f>
         <v>43289.75</v>
       </c>
@@ -1685,20 +3343,20 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>38061</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>38063</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>42850</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E15" si="0">D5*1.5%</f>
         <v>642.75</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <f t="shared" ref="F5:F15" si="1">D5+E5</f>
         <v>43492.75</v>
       </c>
@@ -1707,20 +3365,20 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>38092</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>38087</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>44780</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>671.69999999999993</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>45451.7</v>
       </c>
@@ -1729,20 +3387,20 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>38122</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>38129</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>45695</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>685.42499999999995</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>46380.425000000003</v>
       </c>
@@ -1751,20 +3409,20 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>38153</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>38161</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <v>48750</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>731.25</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>49481.25</v>
       </c>
@@ -1773,20 +3431,20 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>38183</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>38173</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="12">
         <v>43566</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>653.49</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>44219.49</v>
       </c>
@@ -1795,20 +3453,20 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>38214</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>38202</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>43566</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>653.49</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>44219.49</v>
       </c>
@@ -1817,20 +3475,20 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>38245</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>38233</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>44287</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>664.30499999999995</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>44951.305</v>
       </c>
@@ -1839,20 +3497,20 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>38275</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>38279</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <v>44287</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>664.30499999999995</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>44951.305</v>
       </c>
@@ -1861,20 +3519,20 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>38306</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <v>38303</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <v>50120</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>751.8</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
         <v>50871.8</v>
       </c>
@@ -1883,20 +3541,20 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>38336</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>38397</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>56487</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>847.30499999999995</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>57334.305</v>
       </c>
@@ -1905,20 +3563,20 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>38367</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <v>38413</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>56487</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>847.30499999999995</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>57334.305</v>
       </c>
@@ -1942,50 +3600,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="14" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="14"/>
-    <col min="7" max="7" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1995,19 +3653,19 @@
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2020,24 +3678,24 @@
       <c r="D5" s="1">
         <v>733</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <f>D5/C5*100%</f>
         <v>0.97994652406417115</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <f>100%-E5</f>
         <v>2.0053475935828846E-2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="10">
         <f>100%-(B5/C5*100%)</f>
         <v>6.9518716577540052E-2</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="10">
         <f>B5/C5*100%</f>
         <v>0.93048128342245995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,24 +3708,24 @@
       <c r="D6" s="1">
         <v>723</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <f t="shared" ref="E6:E16" si="0">D6/C6*100%</f>
         <v>0.97570850202429149</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" ref="F6:F17" si="1">100%-E6</f>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F16" si="1">100%-E6</f>
         <v>2.4291497975708509E-2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="10">
         <f>100%-(B6/C6*100%)</f>
         <v>7.8272604588394024E-2</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H16" si="2">B6/C6*100%</f>
         <v>0.92172739541160598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2080,24 +3738,24 @@
       <c r="D7" s="1">
         <v>838</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1.0883116883116883</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>-8.8311688311688341E-2</v>
       </c>
-      <c r="G7" s="16">
-        <f t="shared" ref="G6:G16" si="3">100%-(B7/C7*100%)</f>
+      <c r="G7" s="10">
+        <f t="shared" ref="G7:G16" si="3">100%-(B7/C7*100%)</f>
         <v>5.8441558441558406E-2</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="10">
         <f t="shared" si="2"/>
         <v>0.94155844155844159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2110,24 +3768,24 @@
       <c r="D8" s="1">
         <v>791</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>0.98998748435544426</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>1.0012515644555742E-2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="10">
         <f t="shared" si="3"/>
         <v>4.7559449311639579E-2</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
         <v>0.95244055068836042</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2140,24 +3798,24 @@
       <c r="D9" s="1">
         <v>833</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1.0584498094027954</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>-5.8449809402795427E-2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="10">
         <f t="shared" si="3"/>
         <v>5.7179161372299836E-2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
         <v>0.94282083862770016</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2170,24 +3828,24 @@
       <c r="D10" s="1">
         <v>880</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>1.1055276381909547</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>-0.10552763819095468</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <f t="shared" si="3"/>
         <v>5.2763819095477338E-2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>0.94723618090452266</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2200,24 +3858,24 @@
       <c r="D11" s="1">
         <v>823</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>1.0417721518987342</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>-4.1772151898734178E-2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <f t="shared" si="3"/>
         <v>5.82278481012658E-2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <f t="shared" si="2"/>
         <v>0.9417721518987342</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2230,24 +3888,24 @@
       <c r="D12" s="1">
         <v>820</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>1.0499359795134442</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>-4.9935979513444195E-2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="10">
         <f t="shared" si="3"/>
         <v>5.2496798975672165E-2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
         <v>0.94750320102432783</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2260,24 +3918,24 @@
       <c r="D13" s="1">
         <v>831</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>1.0492424242424243</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>-4.924242424242431E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="10">
         <f t="shared" si="3"/>
         <v>5.8080808080808066E-2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="10">
         <f t="shared" si="2"/>
         <v>0.94191919191919193</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2290,24 +3948,24 @@
       <c r="D14" s="1">
         <v>889</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>1.0508274231678487</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>-5.0827423167848718E-2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="10">
         <f t="shared" si="3"/>
         <v>5.3191489361702149E-2</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="10">
         <f t="shared" si="2"/>
         <v>0.94680851063829785</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2320,24 +3978,24 @@
       <c r="D15" s="1">
         <v>861</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>1.1038461538461539</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>-0.10384615384615392</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="10">
         <f t="shared" si="3"/>
         <v>-1.1538461538461497E-2</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
         <v>1.0115384615384615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2350,24 +4008,24 @@
       <c r="D16" s="1">
         <v>954</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>1.0623608017817372</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>-6.2360801781737196E-2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="10">
         <f t="shared" si="3"/>
         <v>5.6792873051224935E-2</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="10">
         <f t="shared" si="2"/>
         <v>0.94320712694877507</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2383,16 +4041,16 @@
         <f>SUM(D5:D16)</f>
         <v>9976</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2420,108 +4078,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="14"/>
-    <col min="11" max="11" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2534,8 +4192,8 @@
       <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2544,36 +4202,36 @@
       <c r="B7" s="1">
         <v>1182</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <f>B7/$B$21*100%</f>
         <v>0.13239247311827956</v>
       </c>
       <c r="D7" s="1">
         <v>1153</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <f>D7/$D$21*100%</f>
         <v>0.12897091722595078</v>
       </c>
       <c r="F7" s="1">
         <v>1436</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <f>F7/$F$21*100%</f>
         <v>0.14394546912590217</v>
       </c>
       <c r="H7" s="1">
         <v>1349</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="10">
         <f>H7/$H$21*100%</f>
         <v>0.14043306266916511</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="10">
         <f>F7/D7*100%</f>
         <v>1.2454466608846488</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="10">
         <f>H7/D7*100%</f>
         <v>1.1699913269731137</v>
       </c>
@@ -2585,36 +4243,36 @@
       <c r="B8" s="1">
         <v>1174</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <f t="shared" ref="C8:C20" si="0">B8/$B$21*100%</f>
         <v>0.13149641577060933</v>
       </c>
       <c r="D8" s="1">
         <v>1229</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <f t="shared" ref="E8:E20" si="1">D8/$D$21*100%</f>
         <v>0.13747203579418343</v>
       </c>
       <c r="F8" s="1">
         <v>1296</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="10">
         <f t="shared" ref="G8:G20" si="2">F8/$F$21*100%</f>
         <v>0.12991178829190056</v>
       </c>
       <c r="H8" s="1">
         <v>1228</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="10">
         <f t="shared" ref="I8:I20" si="3">H8/$H$21*100%</f>
         <v>0.12783676868623778</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="10">
         <f t="shared" ref="J8:J20" si="4">F8/D8*100%</f>
         <v>1.0545158665581773</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="10">
         <f t="shared" ref="K8:K20" si="5">H8/D8*100%</f>
         <v>0.99918633034987792</v>
       </c>
@@ -2626,36 +4284,36 @@
       <c r="B9" s="1">
         <v>262</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>2.9345878136200716E-2</v>
       </c>
       <c r="D9" s="1">
         <v>276</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>3.087248322147651E-2</v>
       </c>
       <c r="F9" s="1">
         <v>290</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="H9" s="1">
         <v>277</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
         <v>2.8836144076618778E-2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="10">
         <f t="shared" si="4"/>
         <v>1.0507246376811594</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="10">
         <f t="shared" si="5"/>
         <v>1.0036231884057971</v>
       </c>
@@ -2667,36 +4325,36 @@
       <c r="B10" s="1">
         <v>334</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>3.7410394265232974E-2</v>
       </c>
       <c r="D10" s="1">
         <v>352</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>3.9373601789709174E-2</v>
       </c>
       <c r="F10" s="1">
         <v>369</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>3.6988773055332796E-2</v>
       </c>
       <c r="H10" s="1">
         <v>354</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
         <v>3.685196752029981E-2</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="10">
         <f t="shared" si="4"/>
         <v>1.0482954545454546</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <f t="shared" si="5"/>
         <v>1.0056818181818181</v>
       </c>
@@ -2708,36 +4366,36 @@
       <c r="B11" s="1">
         <v>740</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>8.2885304659498213E-2</v>
       </c>
       <c r="D11" s="1">
         <v>772</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>8.6353467561521249E-2</v>
       </c>
       <c r="F11" s="1">
         <v>799</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>8.0092221331194868E-2</v>
       </c>
       <c r="H11" s="1">
         <v>760</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="10">
         <f t="shared" si="3"/>
         <v>7.9117218405163434E-2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="10">
         <f t="shared" si="4"/>
         <v>1.0349740932642486</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="10">
         <f t="shared" si="5"/>
         <v>0.98445595854922274</v>
       </c>
@@ -2749,36 +4407,36 @@
       <c r="B12" s="1">
         <v>235</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>2.6321684587813619E-2</v>
       </c>
       <c r="D12" s="1">
         <v>257</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>2.8747203579418346E-2</v>
       </c>
       <c r="F12" s="1">
         <v>260</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>2.6062550120288693E-2</v>
       </c>
       <c r="H12" s="1">
         <v>250</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="10">
         <f t="shared" si="3"/>
         <v>2.6025400791172184E-2</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="10">
         <f t="shared" si="4"/>
         <v>1.0116731517509727</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="10">
         <f t="shared" si="5"/>
         <v>0.97276264591439687</v>
       </c>
@@ -2790,36 +4448,36 @@
       <c r="B13" s="1">
         <v>280</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>3.1362007168458779E-2</v>
       </c>
       <c r="D13" s="1">
         <v>295</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>3.2997762863534674E-2</v>
       </c>
       <c r="F13" s="1">
         <v>319</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>3.1976744186046513E-2</v>
       </c>
       <c r="H13" s="1">
         <v>301</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="10">
         <f t="shared" si="3"/>
         <v>3.1334582552571308E-2</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="10">
         <f t="shared" si="4"/>
         <v>1.0813559322033899</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="10">
         <f t="shared" si="5"/>
         <v>1.0203389830508474</v>
       </c>
@@ -2831,36 +4489,36 @@
       <c r="B14" s="1">
         <v>542</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>6.0707885304659495E-2</v>
       </c>
       <c r="D14" s="1">
         <v>590</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>6.5995525727069348E-2</v>
       </c>
       <c r="F14" s="1">
         <v>600</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
         <v>6.0144346431435444E-2</v>
       </c>
       <c r="H14" s="1">
         <v>575</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="10">
         <f t="shared" si="3"/>
         <v>5.9858421819696021E-2</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="10">
         <f t="shared" si="4"/>
         <v>1.0169491525423728</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="10">
         <f t="shared" si="5"/>
         <v>0.97457627118644063</v>
       </c>
@@ -2872,36 +4530,36 @@
       <c r="B15" s="1">
         <v>406</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>4.5474910394265232E-2</v>
       </c>
       <c r="D15" s="1">
         <v>419</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>4.6868008948545863E-2</v>
       </c>
       <c r="F15" s="1">
         <v>439</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>4.4005613472333602E-2</v>
       </c>
       <c r="H15" s="1">
         <v>421</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="10">
         <f t="shared" si="3"/>
         <v>4.3826774932333959E-2</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="10">
         <f t="shared" si="4"/>
         <v>1.0477326968973748</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="10">
         <f t="shared" si="5"/>
         <v>1.0047732696897376</v>
       </c>
@@ -2913,36 +4571,36 @@
       <c r="B16" s="1">
         <v>216</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="D16" s="1">
         <v>229</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>2.5615212527964205E-2</v>
       </c>
       <c r="F16" s="1">
         <v>240</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>2.4057738572574178E-2</v>
       </c>
       <c r="H16" s="1">
         <v>230</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="10">
         <f t="shared" si="3"/>
         <v>2.394336872787841E-2</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="10">
         <f t="shared" si="4"/>
         <v>1.0480349344978166</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="10">
         <f t="shared" si="5"/>
         <v>1.0043668122270741</v>
       </c>
@@ -2954,36 +4612,36 @@
       <c r="B17" s="1">
         <v>1083</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>0.12130376344086022</v>
       </c>
       <c r="D17" s="1">
         <v>1115</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>0.12472035794183445</v>
       </c>
       <c r="F17" s="1">
         <v>1207</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
         <v>0.12099037690457097</v>
       </c>
       <c r="H17" s="1">
         <v>1159</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="10">
         <f t="shared" si="3"/>
         <v>0.12065375806787425</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="10">
         <f t="shared" si="4"/>
         <v>1.0825112107623318</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="10">
         <f t="shared" si="5"/>
         <v>1.0394618834080718</v>
       </c>
@@ -2995,36 +4653,36 @@
       <c r="B18" s="1">
         <v>975</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>0.10920698924731183</v>
       </c>
       <c r="D18" s="1">
         <v>680</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>7.6062639821029079E-2</v>
       </c>
       <c r="F18" s="1">
         <v>1058</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="10">
         <f t="shared" si="2"/>
         <v>0.10605453087409783</v>
       </c>
       <c r="H18" s="1">
         <v>1007</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="10">
         <f t="shared" si="3"/>
         <v>0.10483031438684155</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="10">
         <f t="shared" si="4"/>
         <v>1.5558823529411765</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="10">
         <f t="shared" si="5"/>
         <v>1.4808823529411765</v>
       </c>
@@ -3036,36 +4694,36 @@
       <c r="B19" s="1">
         <v>587</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>6.5748207885304666E-2</v>
       </c>
       <c r="D19" s="1">
         <v>610</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>6.8232662192393739E-2</v>
       </c>
       <c r="F19" s="1">
         <v>629</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="10">
         <f t="shared" si="2"/>
         <v>6.3051323175621496E-2</v>
       </c>
       <c r="H19" s="1">
         <v>603</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="10">
         <f t="shared" si="3"/>
         <v>6.277326670830731E-2</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="10">
         <f t="shared" si="4"/>
         <v>1.0311475409836066</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="10">
         <f t="shared" si="5"/>
         <v>0.98852459016393446</v>
       </c>
@@ -3077,36 +4735,36 @@
       <c r="B20" s="1">
         <v>912</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>0.10215053763440861</v>
       </c>
       <c r="D20" s="1">
         <v>963</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>0.10771812080536913</v>
       </c>
       <c r="F20" s="1">
         <v>1034</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
         <v>0.10364875701684041</v>
       </c>
       <c r="H20" s="1">
         <v>1092</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="10">
         <f t="shared" si="3"/>
         <v>0.11367895065584011</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="10">
         <f t="shared" si="4"/>
         <v>1.0737279335410177</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="10">
         <f t="shared" si="5"/>
         <v>1.1339563862928348</v>
       </c>
@@ -3116,70 +4774,70 @@
         <v>75</v>
       </c>
       <c r="B21" s="1">
-        <f>SUM(B7:B20)</f>
+        <f t="shared" ref="B21:I21" si="6">SUM(B7:B20)</f>
         <v>8928</v>
       </c>
-      <c r="C21" s="16">
-        <f>SUM(C7:C20)</f>
+      <c r="C21" s="10">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM(D7:D20)</f>
+        <f t="shared" si="6"/>
         <v>8940</v>
       </c>
-      <c r="E21" s="16">
-        <f>SUM(E7:E20)</f>
+      <c r="E21" s="10">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM(F7:F20)</f>
+        <f t="shared" si="6"/>
         <v>9976</v>
       </c>
-      <c r="G21" s="16">
-        <f>SUM(G7:G20)</f>
+      <c r="G21" s="10">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM(H7:H20)</f>
+        <f t="shared" si="6"/>
         <v>9606</v>
       </c>
-      <c r="I21" s="16">
-        <f>SUM(I7:I20)</f>
+      <c r="I21" s="10">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="15"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3204,324 +4862,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>41338</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>40754</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <f>B5-C5</f>
         <v>584</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <f>C5/B5*100%</f>
         <v>0.98587256277517055</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>114354</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>111375</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:D18" si="0">B6-C6</f>
         <v>2979</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="17">
         <f t="shared" ref="E6:E18" si="1">C6/B6*100%</f>
         <v>0.97394931528411777</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>356</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>315</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="17">
         <f t="shared" si="1"/>
         <v>0.8848314606741573</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>9628</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>7190</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>2438</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="17">
         <f t="shared" si="1"/>
         <v>0.74678022434565849</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>25557</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="15">
         <v>25571</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="17">
         <f t="shared" si="1"/>
         <v>1.0005477951246233</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>2216</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="15">
         <v>1962</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="17">
         <f t="shared" si="1"/>
         <v>0.88537906137184119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>7221</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="15">
         <v>7002</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="17">
         <f t="shared" si="1"/>
         <v>0.96967179061071873</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>19614</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="15">
         <v>19268</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <f t="shared" si="1"/>
         <v>0.98235953910472107</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>7859</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="15">
         <v>7330</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>529</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <f t="shared" si="1"/>
         <v>0.93268863723119988</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>13124</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="15">
         <v>13621</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>-497</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <f t="shared" si="1"/>
         <v>1.0378695519658641</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="15">
         <v>221104</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="15">
         <v>22173</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>198931</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <f t="shared" si="1"/>
         <v>0.1002831246834069</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="15">
         <v>228</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="15">
         <v>222</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>0.97368421052631582</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="15">
         <v>113</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="15">
         <v>148</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>1.3097345132743363</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="15">
         <v>905</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="15">
         <v>743</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>0.82099447513812152</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="15">
         <f>SUM(B5:B18)</f>
         <v>463617</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="15">
         <f>SUM(C5:C18)</f>
         <v>257674</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="15">
         <f>SUM(D5:D18)</f>
         <v>205943</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3555,12 +5213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3591,72 +5249,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="18">
         <f>(B4/100)*20</f>
         <v>30.1356</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f>(C4/100)*20</f>
         <v>33.991600000000005</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="18">
         <f>(D4/100)*20</f>
         <v>39.763999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <f>B4-B5</f>
         <v>120.5424</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="21">
         <f>C4-C5</f>
         <v>135.96639999999999</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <f>D4-D5</f>
         <v>159.05599999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="23">
         <v>0.6</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="23">
         <v>0.6</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="23">
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="19">
         <v>2.5</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="19">
         <v>2.5</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="19">
         <v>2.5</v>
       </c>
     </row>
@@ -3675,78 +5333,78 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="18">
         <v>86.263999999999996</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <v>116.396</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="18">
         <v>132.56700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="25">
         <v>0.2</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="25">
         <v>0.22</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3762,7 +5420,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,368 +5439,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="23">
         <v>3.09</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="23">
         <v>1.33</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="23">
         <v>70</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="23">
         <v>16.04</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="23">
         <v>31.75</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="23">
         <v>7.09</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="23">
         <v>42.54</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="23">
         <v>5.81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="E6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="G6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="J6" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="K6" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="23">
         <v>125</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="23">
         <f>$C$3*B7</f>
         <v>350</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="23">
         <f>$A$3*A7</f>
         <v>386.25</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="23">
         <f>$B$3*B7</f>
         <v>6.65</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="23">
         <f>$D$3*B7</f>
         <v>80.199999999999989</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="23">
         <f>$E$3*B7</f>
         <v>158.75</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="23">
         <f>$F$3*B7</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="23">
         <f>$G$3*B7</f>
         <v>212.7</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="23">
         <f>$H$3*B7</f>
         <v>29.049999999999997</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="27">
         <f>SUM(C7:J7)</f>
         <v>1259.05</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="23">
         <v>45</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="23">
         <v>3</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="23">
         <f t="shared" ref="C8:C12" si="0">$C$3*B8</f>
         <v>210</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="23">
         <f t="shared" ref="D8:D12" si="1">$A$3*A8</f>
         <v>139.04999999999998</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="23">
         <f t="shared" ref="E8:E12" si="2">$B$3*B8</f>
         <v>3.99</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="23">
         <f t="shared" ref="F8:F12" si="3">$D$3*B8</f>
         <v>48.12</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="23">
         <f t="shared" ref="G8:G12" si="4">$E$3*B8</f>
         <v>95.25</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="23">
         <f t="shared" ref="H8:H12" si="5">$F$3*B8</f>
         <v>21.27</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="23">
         <f t="shared" ref="I8:I12" si="6">$G$3*B8</f>
         <v>127.62</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="23">
         <f t="shared" ref="J8:J12" si="7">$H$3*B8</f>
         <v>17.43</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="27">
         <f t="shared" ref="K8:K12" si="8">SUM(C8:J8)</f>
         <v>662.7299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="23">
         <v>36</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="23">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="23">
         <f t="shared" si="1"/>
         <v>111.24</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="23">
         <f t="shared" si="2"/>
         <v>2.66</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="23">
         <f t="shared" si="3"/>
         <v>32.08</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="23">
         <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="23">
         <f t="shared" si="5"/>
         <v>14.18</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="23">
         <f t="shared" si="6"/>
         <v>85.08</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="23">
         <f t="shared" si="7"/>
         <v>11.62</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="27">
         <f t="shared" si="8"/>
         <v>460.36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="23">
         <v>60</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="23">
         <f t="shared" si="1"/>
         <v>185.39999999999998</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="23">
         <f t="shared" si="2"/>
         <v>6.65</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="23">
         <f t="shared" si="3"/>
         <v>80.199999999999989</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="23">
         <f t="shared" si="4"/>
         <v>158.75</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="23">
         <f t="shared" si="5"/>
         <v>35.450000000000003</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="23">
         <f t="shared" si="6"/>
         <v>212.7</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="23">
         <f t="shared" si="7"/>
         <v>29.049999999999997</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="27">
         <f t="shared" si="8"/>
         <v>1058.2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="23">
         <v>58</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
         <v>179.22</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="23">
         <f t="shared" si="2"/>
         <v>5.32</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="23">
         <f t="shared" si="3"/>
         <v>64.16</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="23">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="23">
         <f t="shared" si="5"/>
         <v>28.36</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="23">
         <f t="shared" si="6"/>
         <v>170.16</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="23">
         <f t="shared" si="7"/>
         <v>23.24</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="27">
         <f t="shared" si="8"/>
         <v>877.46</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="23">
         <v>45</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="23">
         <v>1</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="23">
         <f t="shared" si="1"/>
         <v>139.04999999999998</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <f t="shared" si="2"/>
         <v>1.33</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="23">
         <f t="shared" si="3"/>
         <v>16.04</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="23">
         <f t="shared" si="4"/>
         <v>31.75</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="23">
         <f t="shared" si="5"/>
         <v>7.09</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="23">
         <f t="shared" si="6"/>
         <v>42.54</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="23">
         <f t="shared" si="7"/>
         <v>5.81</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="27">
         <f t="shared" si="8"/>
         <v>313.60999999999996</v>
       </c>
@@ -4157,15 +5815,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A279CD64-5440-488D-97EA-1D73C261C6A5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
@@ -4173,12 +5831,12 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>139</v>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,23 +5848,266 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>125</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <f>A5*$A$2</f>
+        <v>431.25</v>
+      </c>
+      <c r="D5" s="6">
+        <f>$B$2*B5</f>
+        <v>62.300000000000004</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUM(C5:D5)</f>
+        <v>493.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:C10" si="0">A6*$A$2</f>
+        <v>155.25</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6:D10" si="1">$B$2*B6</f>
+        <v>24.92</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E10" si="2">SUM(C6:D6)</f>
+        <v>180.17000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>124.2</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>37.380000000000003</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>161.58000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>74.760000000000005</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>281.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>58</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>200.10000000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>37.380000000000003</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>237.48000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>155.25</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>12.46</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>167.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B15" s="43">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>141</v>
       </c>
+      <c r="B16" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3">
+        <v>125</v>
+      </c>
+      <c r="C17" s="44">
+        <f>B17/$B$15</f>
+        <v>4.1349652662917631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="44">
+        <f t="shared" ref="C18:C24" si="3">B18/$B$15</f>
+        <v>8.2699305325835262E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="44">
+        <f t="shared" si="3"/>
+        <v>0.49619583195501155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C20" s="44">
+        <f t="shared" si="3"/>
+        <v>0.18193847171683758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="44">
+        <f t="shared" si="3"/>
+        <v>0.23155805491233875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="44">
+        <f t="shared" si="3"/>
+        <v>0.16539861065167052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3">
+        <v>30</v>
+      </c>
+      <c r="C23" s="44">
+        <f t="shared" si="3"/>
+        <v>0.99239166391002309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="44">
+        <f t="shared" si="3"/>
+        <v>0.33079722130334105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>